--- a/Global Allocation/results.xlsx
+++ b/Global Allocation/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="45">
   <si>
     <t>Barclays_US_bond</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>corr_pca,</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B513A75-59BA-4968-BA8E-326F76628D38}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2186,6 +2192,192 @@
         <v>36</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>0.92155799999999999</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1.5823409999999999E-263</v>
+      </c>
+      <c r="D51">
+        <v>0.46462040140329502</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51">
+        <v>0.59352899999999997</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1.1373460000000001E-23</v>
+      </c>
+      <c r="K51">
+        <v>0.34752236110226098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>-0.102702</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.2546E-53</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>-8.2705000000000001E-2</v>
+      </c>
+      <c r="J52" s="5">
+        <v>7.9435729999999993E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>0.17702599999999999</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.3654540000000001E-141</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>0.34461199999999997</v>
+      </c>
+      <c r="J53" s="5">
+        <v>6.4594120000000003E-194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0.141211</v>
+      </c>
+      <c r="C54" s="5">
+        <v>8.5703259999999998E-104</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>0.24729499999999999</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2.5341429999999999E-109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>6.6434999999999994E-2</v>
+      </c>
+      <c r="C55" s="5">
+        <v>6.0764880000000002E-9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>0.22308</v>
+      </c>
+      <c r="J55" s="5">
+        <v>7.0161720000000002E-91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0.13756199999999999</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4.0105499999999998E-79</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>0.32363500000000001</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1.5728399999999999E-174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>-0.132298</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1.7031780000000001E-56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>0.198987</v>
+      </c>
+      <c r="J57" s="5">
+        <v>7.4421619999999998E-74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>-0.24491199999999999</v>
+      </c>
+      <c r="C58" s="5">
+        <v>7.9832619999999998E-256</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>2.2919999999999999E-2</v>
+      </c>
+      <c r="J58" s="5">
+        <v>3.0383779999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8210925-3228-415D-99F4-7FE027BBA1C8}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3048,6 +3240,172 @@
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>1.174693</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.69999748018688501</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39">
+        <v>1.348301</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2.6576650000000001E-118</v>
+      </c>
+      <c r="K39">
+        <v>0.54288449133999095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0.14050699999999999</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3.6556350000000001E-111</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>0.35841200000000001</v>
+      </c>
+      <c r="J40" s="5">
+        <v>4.5588599999999997E-243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.154728</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.2537980000000001E-145</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0.30438100000000001</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1.197653E-189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>9.724E-3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.32807900000000001</v>
+      </c>
+      <c r="H42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>0.18463199999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>4.4782190000000002E-82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0.190135</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.9553480000000001E-176</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>0.36266199999999998</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2.6051559999999999E-247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>-0.20286799999999999</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5.2690900000000003E-151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>0.22734199999999999</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.060133E-117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>-0.37642100000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>-7.6899999999999996E-2</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7.0704169999999996E-17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
